--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -451,939 +451,1269 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2820</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>151002</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>银河收益债券</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>24.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>006157</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>财通量化核心优选混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008635</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安科技创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009239</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159819</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>512930</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>平安中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515860</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>161631</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007340</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>南方科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007341</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005095</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰量化成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>71.59</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005096</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国泰量化成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>71.59</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1393,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,15 +1744,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>377240</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>上投摩根新兴动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>53.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>010610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>上投摩根远见两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>56.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000577</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信价值精选股票</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320015</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安行业轮动混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960007</t>
+          <t>000577</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根新兴动力混合H</t>
+          <t>安信价值精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>35.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>375010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>上投摩根中国优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4069</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3935</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3861</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009691</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009692</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0689</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9130</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7408</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>519995</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>长信金利趋势混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>320001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>诺安平衡混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5433</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>450008</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国富沪深300指数增强</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006724</t>
+          <t>515750</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信深证红利ETF联接C</t>
+          <t>富国中证科技50策略ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>165522</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>165524</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信诚中证智能家居指数（LOF）</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>010552</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>浙商智选领航三年持有期混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>516800</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>华宝中证智能制造主题ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>000524</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上投摩根民生需求股票</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>320001</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>诺安平衡混合</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>73.61</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>960007</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>上投摩根新兴动力混合H</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>70.48</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2414,25 +3104,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>320015</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>诺安行业轮动混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>006429</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>诺安恒鑫混合</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2470,25 +3180,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>375010</t>
+          <t>006429</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上投摩根中国优势混合</t>
+          <t>诺安恒鑫混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>001318</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>东方新策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>377240</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上投摩根新兴动力混合A</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>378010</t>
+          <t>001547</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合</t>
+          <t>兴业聚惠灵活配置混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>006568</t>
+          <t>450008</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国联安行业领先混合</t>
+          <t>国富沪深300指数增强</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>010237</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安信创新先锋混合A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>90.38</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010238</t>
+          <t>001686</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安信创新先锋混合C</t>
+          <t>安信新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90.38</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010427</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>兴银策略智选混合A</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010428</t>
+          <t>010237</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>兴银策略智选混合C</t>
+          <t>安信创新先锋混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>002668</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>兴业聚丰灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>9</v>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>006911</t>
+          <t>002067</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>长江量化匠心甄选股票A</t>
+          <t>诺安精选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>4</v>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>006957</t>
+          <t>000524</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>长江量化匠心甄选股票C</t>
+          <t>上投摩根民生需求股票</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010552</t>
+          <t>002923</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合A</t>
+          <t>兴业聚惠灵活配置混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2834,25 +3674,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010553</t>
+          <t>002060</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合C</t>
+          <t>东方新策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2890,25 +3750,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>010610</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上投摩根远见两年持有期混合</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>010781</t>
+          <t>009691</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合A</t>
+          <t>国泰浩益18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>7</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>010782</t>
+          <t>006568</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合C</t>
+          <t>国联安行业领先混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>7</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>002660</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>兴业聚源灵活配置混合</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>10</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>010781</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>兴业聚申一年持有期混合A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>10</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>001318</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>28.53</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002060</t>
+          <t>010427</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合C</t>
+          <t>兴银策略智选混合A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28.53</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>001687</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>安信新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>5</v>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3114,25 +4054,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>020026</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国泰成长优选混合</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>020033</t>
+          <t>010428</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国泰民安增利债券A</t>
+          <t>兴银策略智选混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>7</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>7</v>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3198,26 +4168,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>6</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3254,25 +4244,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>010553</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>浙商智选领航三年持有期混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>515750</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>富国中证科技50策略ETF</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>4</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3310,26 +4320,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>5</v>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3348,15 +4368,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>99.38</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3366,26 +4396,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>001547</t>
+          <t>010238</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合A</t>
+          <t>安信创新先锋混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>5</v>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -3394,26 +4434,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>002923</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>5</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3422,26 +4472,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>516800</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华宝中证智能制造主题ETF</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.32</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>10</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3450,26 +4510,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>001686</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>安信新动力灵活配置混合A</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>33.11</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>8</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3478,26 +4548,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>001687</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>安信新动力灵活配置混合C</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>33.11</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>8</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3506,26 +4586,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>6</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3534,26 +4624,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>001708</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东兴改革精选灵活配置混合</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>57.80</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>7</v>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3562,26 +4662,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>165522</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -3590,26 +4700,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -3618,26 +4738,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>001780</t>
+          <t>006724</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>诺安改革趋势灵活配置混合</t>
+          <t>工银瑞信深证红利ETF联接C</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>42.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -3646,26 +4776,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>001780</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>诺安改革趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
+          <t>42.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -3674,26 +4814,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>165524</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>信诚中证智能家居指数（LOF）</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>5</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -3702,26 +4852,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>519995</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>长信金利趋势混合</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -3730,26 +4890,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>002067</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>诺安精选回报灵活配置混合</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>8</v>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -3758,26 +4928,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>60.30</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>2</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3786,26 +4966,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>69.81</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>3</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -3814,26 +5004,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>010782</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>兴业聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -3842,26 +5042,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>006911</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>长江量化匠心甄选股票A</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -3870,26 +5080,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>9</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -3898,25 +5118,35 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3926,26 +5156,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>001708</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>东兴改革精选灵活配置混合</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>10</v>
+          <t>57.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -3954,26 +5194,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>002660</t>
+          <t>006957</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>兴业聚源灵活配置混合</t>
+          <t>长江量化匠心甄选股票C</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>6</v>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -3982,26 +5232,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>002668</t>
+          <t>009692</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>兴业聚丰灵活配置混合</t>
+          <t>国泰浩益18个月封闭运作混合C</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>22.08</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>7</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -4010,26 +5270,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -4038,26 +5308,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>6</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5316,7 +5317,6 @@
           <t>中融量化智选混合C</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>91.40</t>
@@ -5332,6 +5332,2532 @@
       </c>
       <c r="H95" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1913</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1857</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9407</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6851</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6197</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7863,4 +7864,4392 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1934</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0642</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4768</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3320</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2863</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0219</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9953</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8897</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8307</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7943</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7656</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004607</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信利尚一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>58.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12252,4 +12253,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12261,7 +12262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12272,17 +12273,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12292,14 +12313,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>114</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.18</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -12308,14 +12351,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.05</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -12324,14 +12389,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>94</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.24</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12340,13 +12427,3871 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4226</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7656</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4543</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4070</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8225</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5185</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3790</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>114</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>94</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>19.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16190,7 +16191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16201,17 +16202,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16221,14 +16242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.02</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -16237,14 +16280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>114</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.18</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -16253,14 +16318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.05</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -16269,14 +16356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>94</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.24</v>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -16285,13 +16394,2065 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>114</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>19.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18335,7 +18336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18346,17 +18347,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18366,14 +18387,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.21</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18382,14 +18425,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.02</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -18398,14 +18463,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>114</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.18</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -18414,14 +18501,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.05</v>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -18430,14 +18539,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>94</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.24</v>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -18446,13 +18577,2119 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>114</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>32</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>19.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>11.21</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>61.02</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>62.18</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>29.05</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>36.24</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>94</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>19.75</v>
       </c>
     </row>
@@ -600,6 +617,1350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6598</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2819,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4963,7 +6324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8891,7 +10252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13279,7 +14640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15805,7 +17166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19426,7 +20787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002236-大华股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>5.3</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>6.12</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>11.21</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>61.02</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>62.18</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D7" t="n">
-        <v>29.05</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>36.24</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>94</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>19.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2820</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1906,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +4103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4180,7 +6323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6324,7 +8467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10252,7 +12395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14640,7 +16783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17166,7 +19309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20785,1276 +22928,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6997</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6997</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4171</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6435</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6127</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159819</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>47.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4066</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2820</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2144</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8499</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7060</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007340</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.94</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6640</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>19.72</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6015</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4389</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3380</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161631</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2776</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008635</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安科技创新混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515860</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1626</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1573</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512930</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1040</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>151002</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银河收益债券</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005095</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰量化成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>71.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007341</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009239</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005096</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰量化成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>71.59</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006157</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>财通量化核心优选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>